--- a/data/trans_bre/P57_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-3.83056317712922</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2.775815028116274</v>
+        <v>2.775815028116263</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.1066053782683964</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.06326304844292005</v>
+        <v>0.06326304844291979</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.26278559030707</v>
+        <v>-10.77392374140338</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.121369882397915</v>
+        <v>-2.962717408613634</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.2802995609549201</v>
+        <v>-0.276191700994316</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.06592537157360819</v>
+        <v>-0.06302067240998262</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.169662088632012</v>
+        <v>3.499748818632227</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.658798845194561</v>
+        <v>9.352848302375923</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1012342518263643</v>
+        <v>0.1058793527939227</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2105689638651829</v>
+        <v>0.236211297641868</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-13.48322714021065</v>
+        <v>-14.22180208740968</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-9.631451422244048</v>
+        <v>-10.14896937725643</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3801245631225813</v>
+        <v>-0.3931634398875114</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1826100962687159</v>
+        <v>-0.1971904940697958</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.07304420819668023</v>
+        <v>-0.4666523781194944</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.114326142661763</v>
+        <v>2.540100636751673</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.004572421503935407</v>
+        <v>-0.01042679991489272</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.06970428801713763</v>
+        <v>0.05809127111355017</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.35660922487359</v>
+        <v>-12.23897159327897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.00787563627104</v>
+        <v>-16.46280887192789</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.395175701538479</v>
+        <v>-0.3861289957626652</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3372467817928276</v>
+        <v>-0.3270082883781235</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.175377749420818</v>
+        <v>3.35987452925139</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.471888412427277</v>
+        <v>-0.5669111720819688</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.1257954119022409</v>
+        <v>0.1226103495358014</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.03370204444199324</v>
+        <v>-0.01230198777011089</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>2.44617089890013</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-2.043372016806733</v>
+        <v>-2.043372016806738</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.08775003923186683</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.04536717956976493</v>
+        <v>-0.04536717956976505</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.497204117238357</v>
+        <v>-1.932258375254533</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.375995885146532</v>
+        <v>-6.265524483944473</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04936451377543368</v>
+        <v>-0.06484043069930297</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1330736015371138</v>
+        <v>-0.131848824194068</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.742845117807741</v>
+        <v>6.436274316569652</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.466168752363184</v>
+        <v>2.945075483992921</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2605646805331345</v>
+        <v>0.2458981763058715</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.05820340820442904</v>
+        <v>0.06932716312067308</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.67042500515234</v>
+        <v>-10.53179676396782</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-14.79678646506902</v>
+        <v>-13.95932236996952</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.3967143323640993</v>
+        <v>-0.3883937990129842</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.3225672697512329</v>
+        <v>-0.313522379563082</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.429189132989812</v>
+        <v>-1.395227867875518</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.59113888365837</v>
+        <v>-3.603812126754197</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.0677332844528723</v>
+        <v>-0.06399731683857024</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.09675082647160164</v>
+        <v>-0.09436126042248182</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>-17.10356246916581</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-21.01682668425246</v>
+        <v>-21.01682668425245</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.380696564485083</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.3317997533539875</v>
+        <v>-0.3317997533539874</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-23.50483201229638</v>
+        <v>-23.98441202949908</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-30.83575502800998</v>
+        <v>-30.76664369221023</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4725134898929207</v>
+        <v>-0.4720476228242946</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4309651826572356</v>
+        <v>-0.4353715720485395</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-11.26441657733342</v>
+        <v>-10.36585953568789</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-10.49951581539854</v>
+        <v>-11.4892312388977</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2713290024871756</v>
+        <v>-0.2608942828729778</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1938541034606459</v>
+        <v>-0.213649972534312</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>-3.974673402259282</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-5.330910840623437</v>
+        <v>-5.330910840623432</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>-0.1308915233885372</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>-0.1148057538555587</v>
+        <v>-0.1148057538555586</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.216618301421829</v>
+        <v>-6.040985407697309</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.603718143211295</v>
+        <v>-7.579007238617591</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.1986038861387303</v>
+        <v>-0.1918831838378687</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1587617526689513</v>
+        <v>-0.1584348941766983</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.954456966917806</v>
+        <v>-1.59988065465317</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.828373339674909</v>
+        <v>-2.771146412609547</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>-0.06765159958556381</v>
+        <v>-0.0546774892424987</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.06367242282896259</v>
+        <v>-0.06273745378134551</v>
       </c>
     </row>
     <row r="25">
